--- a/similarities/split_global/harmonic_similarity_timestamps_189.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_189.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:02.260000', '0:01:13.880000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=62.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:40.100000')]</t>
+          <t>('0:00:03.129454', '0:00:06.531178')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:29', '0:03:02.720000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=149.0']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:20.852000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:33.431496', '0:00:42.278299')]</t>
+          <t>('0:00:07.600000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=33.431496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'F:min', 'B:dim7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:11.480000', '0:00:15.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:00:06.590000', '0:00:10.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=11.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min'], ['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:45.220000', '0:02:02.720000'), ('0:00:14.220000', '0:00:46.760000')]</t>
+          <t>('0:00:32.700000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:36.220000', '0:00:49'), ('0:00:41.920000', '0:00:52.740000')]</t>
+          <t>('0:00:12.340000', '0:00:41.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=105.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=32.7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=36.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=41.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=12.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'F:maj/A', 'C:maj/G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:26.920000', '0:00:29.340000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:20.614081', '0:00:24.271224')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=26.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.600000', '0:00:11.260000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:27.640000')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49', '0:00:56.800000')]</t>
+          <t>('0:00:22.680000', '0:00:26.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=49.0']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['Ab:7', 'Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+          <t>('0:00:47.890000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+          <t>('0:00:05.460000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=21.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=5.46</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:01:04.520000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:06.840000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:48.450000', '0:00:52.970000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=48.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:09.920000', '0:00:11.960000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
